--- a/Figure4/Figure4C/data/singleplot_statistics_panel.xlsx
+++ b/Figure4/Figure4C/data/singleplot_statistics_panel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\Desktop\PDfunction\Figure4\Figure4C\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\Desktop\PDfunction\Figure4\Figure4C\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,14 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="parameterlist" sheetId="1" r:id="rId1"/>
-    <sheet name="sixhours" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>k</t>
   </si>
@@ -88,9 +87,6 @@
     <t>22_5_2015_WHON_CIP.txt</t>
   </si>
   <si>
-    <t>22_3_2015_WT_CIP.txt</t>
-  </si>
-  <si>
     <t>WHOG</t>
   </si>
   <si>
@@ -106,9 +102,6 @@
     <t>WHON</t>
   </si>
   <si>
-    <t>WT103</t>
-  </si>
-  <si>
     <t>ciprofloxacin</t>
   </si>
   <si>
@@ -127,9 +120,6 @@
     <t>WHON_CIP</t>
   </si>
   <si>
-    <t>WT_CIP</t>
-  </si>
-  <si>
     <t>0.125</t>
   </si>
   <si>
@@ -140,66 +130,6 @@
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>0.006</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>dilution</t>
-  </si>
-  <si>
-    <t>CFU.per.ml</t>
-  </si>
-  <si>
-    <t>MIC</t>
-  </si>
-  <si>
-    <t>antibiotic.conc</t>
-  </si>
-  <si>
-    <t>hours</t>
-  </si>
-  <si>
-    <t>replicate</t>
-  </si>
-  <si>
-    <t>WHOG_1</t>
-  </si>
-  <si>
-    <t>WHOG_2</t>
-  </si>
-  <si>
-    <t>WHOG_3</t>
-  </si>
-  <si>
-    <t>WHOG_4</t>
-  </si>
-  <si>
-    <t>WHOG_5</t>
-  </si>
-  <si>
-    <t>WHOG_6</t>
-  </si>
-  <si>
-    <t>WHOG_7</t>
-  </si>
-  <si>
-    <t>WHOG_8</t>
-  </si>
-  <si>
-    <t>WHOG_9</t>
-  </si>
-  <si>
-    <t>WHOG_10</t>
-  </si>
-  <si>
-    <t>WHOG_11</t>
-  </si>
-  <si>
-    <t>WHOG_12</t>
   </si>
 </sst>
 </file>
@@ -555,11 +485,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -622,13 +559,13 @@
         <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="3">
         <v>0.69199073202517103</v>
@@ -661,7 +598,7 @@
         <v>9.3513396706763948E-3</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="3">
         <v>2</v>
@@ -675,13 +612,13 @@
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F3" s="3">
         <v>1.4744862729673303</v>
@@ -714,7 +651,7 @@
         <v>3.9560714309094891</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="3">
         <v>64</v>
@@ -728,13 +665,13 @@
         <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3">
         <v>1.5638104426504744</v>
@@ -767,7 +704,7 @@
         <v>0.74748620637229324</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="3">
         <v>64</v>
@@ -781,13 +718,13 @@
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" s="3">
         <v>3.489193133676515</v>
@@ -820,7 +757,7 @@
         <v>1.4178017188766925E-2</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q5" s="3">
         <v>32</v>
@@ -834,13 +771,13 @@
         <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" s="3">
         <v>1.5794355870114434</v>
@@ -873,414 +810,10 @@
         <v>0.19118499982356618</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="3">
         <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1.1864267094451164</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.29334391947621852</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.42855718349066535</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.28528067503513299</v>
-      </c>
-      <c r="J7" s="3">
-        <v>-10.404417145810843</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1.2668238344015184</v>
-      </c>
-      <c r="L7" s="3">
-        <v>2.6590657475506693E-2</v>
-      </c>
-      <c r="M7" s="3">
-        <v>6.6048136573223434E-3</v>
-      </c>
-      <c r="N7" s="3">
-        <v>1.8079318224641862E-3</v>
-      </c>
-      <c r="O7" s="3">
-        <v>9.292489755518571E-4</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0.16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="3">
-        <v>20</v>
-      </c>
-      <c r="C2" s="3">
-        <v>100000</v>
-      </c>
-      <c r="D2" s="3">
-        <v>200000000</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1.5625000000000001E-3</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1.9531299999999999E-4</v>
-      </c>
-      <c r="G2" s="3">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="3">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="D3" s="3">
-        <v>160000000</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1.5625E-2</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1.953125E-3</v>
-      </c>
-      <c r="G3" s="3">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="3">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3">
-        <v>100000</v>
-      </c>
-      <c r="D4" s="3">
-        <v>140000000</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3.125E-2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>3.90625E-3</v>
-      </c>
-      <c r="G4" s="3">
-        <v>6</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="3">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3">
-        <v>100000</v>
-      </c>
-      <c r="D5" s="3">
-        <v>90000000</v>
-      </c>
-      <c r="E5" s="3">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>7.8125E-3</v>
-      </c>
-      <c r="G5" s="3">
-        <v>6</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="3">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5000000</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.125</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1.5625E-2</v>
-      </c>
-      <c r="G6" s="3">
-        <v>6</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="3">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1300000</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="F7" s="3">
-        <v>3.125E-2</v>
-      </c>
-      <c r="G7" s="3">
-        <v>6</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="3">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3">
-        <v>100</v>
-      </c>
-      <c r="D8" s="3">
-        <v>100000</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="3">
-        <v>6.25E-2</v>
-      </c>
-      <c r="G8" s="3">
-        <v>6</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="3">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3">
-        <v>26000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.125</v>
-      </c>
-      <c r="G9" s="3">
-        <v>6</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="3">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3">
-        <v>15000</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="G10" s="3">
-        <v>6</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="3">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>700</v>
-      </c>
-      <c r="E11" s="3">
-        <v>4</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="3">
-        <v>6</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>8</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>6</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>16</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2</v>
-      </c>
-      <c r="G13" s="3">
-        <v>6</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Figure4/Figure4C/data/singleplot_statistics_panel.xlsx
+++ b/Figure4/Figure4C/data/singleplot_statistics_panel.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="parameterlist" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>k</t>
   </si>
@@ -130,6 +130,15 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>22_5_2015_DOGK18_CIP.txt</t>
+  </si>
+  <si>
+    <t>DOGK18</t>
+  </si>
+  <si>
+    <t>DOGK18_CIP</t>
   </si>
 </sst>
 </file>
@@ -195,11 +204,16 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="P2" sqref="P2:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,6 +830,59 @@
         <v>64</v>
       </c>
     </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1.1132554898553977</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.25147207947684957</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.70222805446222347</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.26587332644604955</v>
+      </c>
+      <c r="J7" s="4">
+        <v>-8.874630518727507</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.98325095954987418</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1.9281320667539601E-2</v>
+      </c>
+      <c r="M7" s="4">
+        <v>4.6746877856384686E-3</v>
+      </c>
+      <c r="N7">
+        <v>1.7636546069380885E-3</v>
+      </c>
+      <c r="O7">
+        <v>7.2205347774997213E-4</v>
+      </c>
+      <c r="P7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="Q7">
+        <v>0.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
